--- a/adhoc-report.xlsx
+++ b/adhoc-report.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PORTO\Excel\ms-excel-case-skills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BAB0DE-6CA5-4E2E-B54D-C778E29D8B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8507CED-BBA0-4F96-8CB1-0AFB0852D1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{02FE75B2-A662-44C1-8B2B-706BE1832213}"/>
+    <workbookView xWindow="2856" yWindow="2856" windowWidth="17280" windowHeight="8880" xr2:uid="{02FE75B2-A662-44C1-8B2B-706BE1832213}"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="46" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -280,10 +280,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -314,10 +313,10 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -635,7 +634,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C4E4B174-9B5B-4998-8F38-5F28E1EEAE66}" name="PivotTable8" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C4E4B174-9B5B-4998-8F38-5F28E1EEAE66}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A12:C16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="14" showAll="0"/>
@@ -698,7 +697,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{48BA0A6A-AFFF-4A9F-A1D1-51CCC44AC4CE}" name="PivotTable3" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{48BA0A6A-AFFF-4A9F-A1D1-51CCC44AC4CE}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A7:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="14" showAll="0"/>
@@ -820,7 +819,7 @@
   <autoFilter ref="A1:B9" xr:uid="{AB9E21F1-88A6-4AAD-AA26-AE05CD6B1E92}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{97FE1EF6-20D6-490D-A7B1-6916335B3478}" uniqueName="1" name="user_id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{C2E2841D-C554-47B0-B887-8878C5663EF2}" uniqueName="2" name="alamat" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{C2E2841D-C554-47B0-B887-8878C5663EF2}" uniqueName="2" name="alamat" queryTableFieldId="2" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -831,7 +830,7 @@
   <autoFilter ref="A1:B9" xr:uid="{5DB2DDBF-F110-4278-AA7F-CD732E4FC9FF}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{5CBBA8BF-3178-43FB-A094-3B8E1D92C935}" uniqueName="1" name="user_id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{CD4A7513-7E5C-45F4-AD51-54B8A6DDBD87}" uniqueName="2" name="name" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{CD4A7513-7E5C-45F4-AD51-54B8A6DDBD87}" uniqueName="2" name="name" queryTableFieldId="2" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -841,7 +840,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4FD08995-706A-4A9E-A34A-1B4CDF12612F}" name="raw_monthly_order" displayName="raw_monthly_order" ref="A1:C182" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:C182" xr:uid="{4FD08995-706A-4A9E-A34A-1B4CDF12612F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E0E2FCBA-7918-4BD8-987F-B6C7DB691680}" uniqueName="1" name="date" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{E0E2FCBA-7918-4BD8-987F-B6C7DB691680}" uniqueName="1" name="date" queryTableFieldId="1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{CC06063F-FF14-4A67-9A33-EE93BC5439A8}" uniqueName="2" name="amount" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{3DFBC9C0-1984-4013-A543-D25B5B34F1EE}" uniqueName="3" name="cust_no" queryTableFieldId="3"/>
   </tableColumns>
@@ -1152,13 +1151,13 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A3" sqref="A3:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1223,7 +1222,7 @@
       <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1231,7 +1230,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="str">
@@ -1243,7 +1242,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="str">
@@ -1255,7 +1254,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="str">
@@ -1267,7 +1266,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="str">
@@ -1279,7 +1278,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="str">
@@ -1291,7 +1290,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="str">
@@ -1303,7 +1302,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="str">
@@ -1315,7 +1314,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
       <c r="C9" t="str">
@@ -1361,7 +1360,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1369,7 +1368,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1377,7 +1376,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1385,7 +1384,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1393,7 +1392,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1401,7 +1400,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1409,7 +1408,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1417,7 +1416,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1456,7 +1455,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4191,7 +4190,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4203,14 +4202,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <f>SUMIFS('raw-monthly-order'!$B:$B,'raw-monthly-order'!$D:$D,MONTH(MAX('raw-monthly-order'!$A:$A)))</f>
         <v>15941</v>
       </c>
@@ -4219,13 +4218,13 @@
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <f>B2/(SUMIFS('raw-monthly-order'!$B:$B,'raw-monthly-order'!$D:$D,MONTH(MAX('raw-monthly-order'!$A:$A))-1))-1</f>
         <v>-1.5258215962441368E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -4233,7 +4232,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B7" t="s">
@@ -4241,10 +4240,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>4183</v>
       </c>
     </row>
@@ -4254,13 +4253,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="str">
+      <c r="A11" s="7" t="str">
         <f>_xlfn.XLOOKUP(MIN($D$13:$D$15),$D$13:$D$15,$A$13:$A$15)</f>
         <v>yogyakarta</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B12" t="s">
@@ -4274,69 +4273,69 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>7219</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>14</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <f t="shared" ref="D13:D15" si="0">B13/C13</f>
         <v>515.64285714285711</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>4183</v>
       </c>
-      <c r="C14" s="2">
-        <v>6</v>
-      </c>
-      <c r="D14" s="14">
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14" s="13">
         <f t="shared" si="0"/>
         <v>697.16666666666663</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>4539</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>10</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <f t="shared" si="0"/>
         <v>453.9</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>15941</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
+      <c r="A19" s="6"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
+      <c r="A20" s="6"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
+      <c r="A21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4350,8 +4349,8 @@
   </sheetPr>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4367,27 +4366,27 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" cm="1">
+      <c r="A4" s="11" cm="1">
         <f t="array" ref="A4:D33">_xlfn._xlws.FILTER('raw-monthly-order'!$A:$D,'raw-monthly-order'!$D:$D=6,"no data")</f>
         <v>45078</v>
       </c>
@@ -4400,11 +4399,11 @@
       <c r="D4">
         <v>6</v>
       </c>
-      <c r="E4" s="11" t="str">
+      <c r="E4" s="10" t="str">
         <f>VLOOKUP('Answer 5'!$C4,'raw-name'!$A:$B,2,0)</f>
         <v>joko</v>
       </c>
-      <c r="F4" s="11" t="str">
+      <c r="F4" s="10" t="str">
         <f>_xlfn.XLOOKUP($C4,'raw-alamat'!$A:$A,'raw-alamat'!$C:$C)</f>
         <v>bantul</v>
       </c>
